--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints4.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints4.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.447865756018329e-08</v>
+        <v>1.805150903404085e-08</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>3.497780002019621e-08</v>
+        <v>1.874064399468022e-08</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>3.544924488336981e-08</v>
+        <v>1.937454441335741e-08</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>3.589652897843649e-08</v>
+        <v>1.995807032796007e-08</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>3.632318913412866e-08</v>
+        <v>2.049608177637587e-08</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>3.67327621791787e-08</v>
+        <v>2.099343879649247e-08</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>3.712878494231903e-08</v>
+        <v>2.145500142619756e-08</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>3.751479425228204e-08</v>
+        <v>2.188562970337878e-08</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>3.789432693780014e-08</v>
+        <v>2.22901836659238e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>3.827091982760574e-08</v>
+        <v>2.267352335172028e-08</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>3.864810975043104e-08</v>
+        <v>2.304050879865574e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>3.902943353500883e-08</v>
+        <v>2.339600004461817e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>3.94184280100713e-08</v>
+        <v>2.374485712749506e-08</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>3.981863000435087e-08</v>
+        <v>2.409194008517409e-08</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>4.023357634657992e-08</v>
+        <v>2.44421089555429e-08</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>4.066680386549089e-08</v>
+        <v>2.480022377648919e-08</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>4.112184938981615e-08</v>
+        <v>2.51711445859006e-08</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>4.160224974828812e-08</v>
+        <v>2.55597314216648e-08</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>4.211154176963919e-08</v>
+        <v>2.597084432166946e-08</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>4.265326228260175e-08</v>
+        <v>2.640934332380224e-08</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>4.323094811590824e-08</v>
+        <v>2.688008846595082e-08</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>4.384813609829103e-08</v>
+        <v>2.738793978600285e-08</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>4.450836305848253e-08</v>
+        <v>2.793775732184601e-08</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>4.521516582521514e-08</v>
+        <v>2.853440111136795e-08</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>4.597208122722127e-08</v>
+        <v>2.918273119245634e-08</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>4.678264609323331e-08</v>
+        <v>2.988760760299885e-08</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>4.765039725198367e-08</v>
+        <v>3.065389038088315e-08</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>4.857887153220475e-08</v>
+        <v>3.148643956399689e-08</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>4.957160576262845e-08</v>
+        <v>3.239011519022729e-08</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>5.063213677198815e-08</v>
+        <v>3.33697772974629e-08</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>5.176400138901575e-08</v>
+        <v>3.443028592359095e-08</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>5.297073644244368e-08</v>
+        <v>3.557650110649911e-08</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>5.425587876100434e-08</v>
+        <v>3.681328288407505e-08</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>5.562296517343013e-08</v>
+        <v>3.814549129420643e-08</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>5.707553250845343e-08</v>
+        <v>3.957798637478091e-08</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>5.861711759480669e-08</v>
+        <v>4.111562816368617e-08</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>6.025125726122228e-08</v>
+        <v>4.276327669880988e-08</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>6.198148833643259e-08</v>
+        <v>4.452579201803968e-08</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>6.381134764917002e-08</v>
+        <v>4.640803415926325e-08</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>6.574437202816703e-08</v>
+        <v>4.841486316036826e-08</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>6.778409830215597e-08</v>
+        <v>5.055113905924239e-08</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>6.993406329986922e-08</v>
+        <v>5.282172189377326e-08</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>7.219780385003925e-08</v>
+        <v>5.523147170184858e-08</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>7.457885678139838e-08</v>
+        <v>5.778524852135598e-08</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>7.708075892267909e-08</v>
+        <v>6.048791239018316e-08</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>7.970704710261374e-08</v>
+        <v>6.334432334621778e-08</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>8.246125814993474e-08</v>
+        <v>6.635934142734748e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>8.53469810247054e-08</v>
+        <v>6.953786808251329e-08</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>8.838050769305416e-08</v>
+        <v>7.289489552293572e-08</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>9.160732949589714e-08</v>
+        <v>7.646861078066167e-08</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>9.507702501406984e-08</v>
+        <v>8.030044762840675e-08</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>9.88391728284079e-08</v>
+        <v>8.443183983888663e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>1.029433515197469e-07</v>
+        <v>8.890422118481692e-08</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>1.074391396689224e-07</v>
+        <v>9.375902543891339e-08</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>1.123761158567701e-07</v>
+        <v>9.903768637389156e-08</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>1.178038586641254e-07</v>
+        <v>1.047816377624671e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>1.237719466718241e-07</v>
+        <v>1.110323133773558e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>1.303299584607018e-07</v>
+        <v>1.178311469912732e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>1.375274726115939e-07</v>
+        <v>1.25219572376935e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>1.454140677053362e-07</v>
+        <v>1.332390233070567e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>1.540393223227641e-07</v>
+        <v>1.419309335543543e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>1.634528150447134e-07</v>
+        <v>1.51336736891543e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>1.737041244520196e-07</v>
+        <v>1.614978670913389e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>1.848428291255183e-07</v>
+        <v>1.724557579264574e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>1.969185076460451e-07</v>
+        <v>1.842518431696142e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>2.09980738594429e-07</v>
+        <v>1.969275565935185e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>2.241130494487355e-07</v>
+        <v>2.105598530322425e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>2.397627647977921e-07</v>
+        <v>2.25606331775126e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>2.575980492235756e-07</v>
+        <v>2.427556591442219e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>2.782901722470075e-07</v>
+        <v>2.626997501893993e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>3.025104033890088e-07</v>
+        <v>2.86130519960527e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>3.309300121705011e-07</v>
+        <v>3.137398835074739e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>3.642202681124054e-07</v>
+        <v>3.462197558801088e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>4.03052440735643e-07</v>
+        <v>3.842620521283008e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>4.480977995611352e-07</v>
+        <v>4.285586873019185e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>5.000276141098035e-07</v>
+        <v>4.798015764508312e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>5.595131539025685e-07</v>
+        <v>5.386826346249072e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>6.272256884603524e-07</v>
+        <v>6.05893776874016e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>7.038364873040756e-07</v>
+        <v>6.821269182480261e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>7.900168199546597e-07</v>
+        <v>7.680739737968065e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>8.86279351153343e-07</v>
+        <v>8.642662480364689e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>9.913427488356609e-07</v>
+        <v>9.694183613636507e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>1.102791472581547e-06</v>
+        <v>1.081096382348562e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>1.218192094389754e-06</v>
+        <v>1.19684826576959e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>1.335111186258978e-06</v>
+        <v>1.314221966405065e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.451115320188084e-06</v>
+        <v>1.430765439033489e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>1.563771068175769e-06</v>
+        <v>1.544026638433193e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>1.670645002220784e-06</v>
+        <v>1.651553519382565e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.769303694321882e-06</v>
+        <v>1.75089403665999e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>1.857313716477816e-06</v>
+        <v>1.839596145043857e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>1.932241640687337e-06</v>
+        <v>1.915207799312555e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>1.991654038949198e-06</v>
+        <v>1.975276954244467e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>2.03311748326215e-06</v>
+        <v>2.017351564617985e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>2.054198545624946e-06</v>
+        <v>2.038979585211493e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>2.052691508270261e-06</v>
+        <v>2.037937986001284e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>2.029111906966752e-06</v>
+        <v>2.014740585485394e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>1.985766774140373e-06</v>
+        <v>1.971702965545305e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>1.924994653227754e-06</v>
+        <v>1.911172399656778e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>1.849134087665526e-06</v>
+        <v>1.835496161295579e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>1.760523620890321e-06</v>
+        <v>1.747021523937469e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>1.661501796338771e-06</v>
+        <v>1.648095761058211e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>1.554407157447506e-06</v>
+        <v>1.541066146133569e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.441578247653215e-06</v>
+        <v>1.428279952639361e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>1.325353610392417e-06</v>
+        <v>1.312084454051241e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>1.208071789101799e-06</v>
+        <v>1.194826923845024e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>1.092071327217992e-06</v>
+        <v>1.078854635496475e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>9.796907681776263e-07</v>
+        <v>9.665148624813552e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>8.732686554173348e-07</v>
+        <v>8.601548782754291e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>7.751435323737483e-07</v>
+        <v>7.621219563544591e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>6.874845778835715e-07</v>
+        <v>6.745908401728803e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>6.100821495769865e-07</v>
+        <v>5.973129918519854e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>5.409717327609043e-07</v>
+        <v>5.282522026568596e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>4.781478693402447e-07</v>
+        <v>4.653305552191319e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>4.198748400122277e-07</v>
+        <v>4.067572703525999e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>3.659738433169361e-07</v>
+        <v>3.523989150591028e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>3.168234612835476e-07</v>
+        <v>3.027153936223171e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>2.7280298377193e-07</v>
+        <v>2.581673638149371e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>2.342878209889699e-07</v>
+        <v>2.192111727649091e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>2.013544357622234e-07</v>
+        <v>1.859710100703778e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>1.735732443057828e-07</v>
+        <v>1.580088018519871e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>1.504657310210636e-07</v>
+        <v>1.348321065685405e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>1.315533803094895e-07</v>
+        <v>1.159484826788497e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>1.163576765724577e-07</v>
+        <v>1.008654886416999e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>1.044001042113936e-07</v>
+        <v>8.909068291590474e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>9.520214762771282e-08</v>
+        <v>8.013162396026777e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>8.828529122283067e-08</v>
+        <v>7.349587023359246e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>8.317101939816253e-08</v>
+        <v>6.869098019468217e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>7.938081655512383e-08</v>
+        <v>6.522451230234042e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>7.643616709512996e-08</v>
+        <v>6.260402501537068e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>7.38585554195963e-08</v>
+        <v>6.033707679257637e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>7.116946592993831e-08</v>
+        <v>5.793122609276098e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>6.789055342230108e-08</v>
+        <v>5.489421408869452e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>6.377923609930585e-08</v>
+        <v>5.098659063587339e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>5.929658522722384e-08</v>
+        <v>4.672343152228109e-08</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>5.50343694835012e-08</v>
+        <v>4.275995913816116e-08</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>5.158435754558408e-08</v>
+        <v>3.975139587375719e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>4.951977589808892e-08</v>
+        <v>3.83309993786209e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>4.902526715609713e-08</v>
+        <v>3.867171799532217e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>4.991684081555179e-08</v>
+        <v>4.050982405153568e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>5.199595780484092e-08</v>
+        <v>4.356435590931381e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>5.506407905235584e-08</v>
+        <v>4.755435193071373e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>5.892266548648507e-08</v>
+        <v>5.21988504777883e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>6.337317803561786e-08</v>
+        <v>5.721688991259163e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>6.821707762814347e-08</v>
+        <v>6.232750859717779e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>7.325582519245117e-08</v>
+        <v>6.724974489360091e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>7.829091603072054e-08</v>
+        <v>7.170269141302914e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>8.319922716740462e-08</v>
+        <v>7.552440907384569e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>8.809285547443341e-08</v>
+        <v>7.89241854822002e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>9.312964933871441e-08</v>
+        <v>8.218351381510553e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>9.846745714715519e-08</v>
+        <v>8.558388724957465e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>1.042641272866633e-07</v>
+        <v>8.94067989626204e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>1.106775081441462e-07</v>
+        <v>9.393374213125569e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>1.178654481065116e-07</v>
+        <v>9.944620993249338e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>1.259857955606669e-07</v>
+        <v>1.062256955433464e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>1.351963988935198e-07</v>
+        <v>1.145536921408276e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>1.456856458557744e-07</v>
+        <v>1.247227640409248e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>1.578449498886548e-07</v>
+        <v>1.370990764915305e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>1.721485471880015e-07</v>
+        <v>1.520788196694372e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>1.890709182645653e-07</v>
+        <v>1.700582723205489e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>2.090865436290867e-07</v>
+        <v>1.914337131907587e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>2.326699037923356e-07</v>
+        <v>2.166014210259912e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>2.602954792650538e-07</v>
+        <v>2.459576745721412e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>2.924377505579925e-07</v>
+        <v>2.798987525751126e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>3.295711981819023e-07</v>
+        <v>3.188209337808097e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>3.721703026475343e-07</v>
+        <v>3.63120496935137e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>4.207095444656389e-07</v>
+        <v>4.131937207839981e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>4.756634041469673e-07</v>
+        <v>4.694368840732974e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>5.375063622022702e-07</v>
+        <v>5.322462655489393e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>6.067124959885773e-07</v>
+        <v>6.020177641854317e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>6.831980669324092e-07</v>
+        <v>6.786218155339214e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>7.652144941748734e-07</v>
+        <v>7.603605712748292e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>8.507039669425651e-07</v>
+        <v>8.452448880562927e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>9.376086744620798e-07</v>
+        <v>9.312856225264498e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>1.023870805960013e-06</v>
+        <v>1.016493631333439e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>1.10743255066296e-06</v>
+        <v>1.098879771125397e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>1.186236097797517e-06</v>
+        <v>1.176454898550464e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>1.258223636590246e-06</v>
+        <v>1.247229870256744e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>1.321337356267812e-06</v>
+        <v>1.309215542892444e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>1.373542169781689e-06</v>
+        <v>1.360444786670705e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>1.413792311319574e-06</v>
+        <v>1.399908874859607e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>1.442392061280376e-06</v>
+        <v>1.42790693541159e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>1.45974276154864e-06</v>
+        <v>1.444832124407617e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>1.46624575400891e-06</v>
+        <v>1.451077597928655e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>1.462302380545733e-06</v>
+        <v>1.447036512055667e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>1.448313983043653e-06</v>
+        <v>1.433102022869617e-06</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>1.424681903387216e-06</v>
+        <v>1.40966728645147e-06</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>1.391807483460967e-06</v>
+        <v>1.377125458882191e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>1.350092448024583e-06</v>
+        <v>1.335870070687542e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>1.300181829660028e-06</v>
+        <v>1.286532602944455e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>1.24338069811563e-06</v>
+        <v>1.230390040873752e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>1.181104969759833e-06</v>
+        <v>1.168827775641053e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>1.114770560961086e-06</v>
+        <v>1.10323119841198e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>1.045793388087833e-06</v>
+        <v>1.034985700352156e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>9.75589367508521e-07</v>
+        <v>9.65476672627202e-07</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>9.055744155915964e-07</v>
+        <v>8.960895064027392e-07</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>8.371644487055055e-07</v>
+        <v>8.282095928443899e-07</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>7.717753832187246e-07</v>
+        <v>7.632223231178061e-07</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>7.106406453285976e-07</v>
+        <v>7.023366999351564e-07</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>6.539484843473379e-07</v>
+        <v>6.45751495522022e-07</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>6.015157043089971e-07</v>
+        <v>5.933064564218827e-07</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>5.53158663533118e-07</v>
+        <v>5.448408983665623e-07</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>5.086937203392433e-07</v>
+        <v>5.001941370878841e-07</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>4.679372330469164e-07</v>
+        <v>4.592054883176721e-07</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>4.307055599756799e-07</v>
+        <v>4.217142677877499e-07</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>3.96815059445077e-07</v>
+        <v>3.87559791229941e-07</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>3.660820897746499e-07</v>
+        <v>3.565813743760689e-07</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>3.383235162844576e-07</v>
+        <v>3.286184550189075e-07</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>3.133715806695649e-07</v>
+        <v>3.03514172830977e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>2.910763013306087e-07</v>
+        <v>2.811159472468542e-07</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>2.712886869036077e-07</v>
+        <v>2.612714361014089e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>2.538597460245804e-07</v>
+        <v>2.438282972295104e-07</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>2.386404873295455e-07</v>
+        <v>2.286341884660288e-07</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>2.254819194545216e-07</v>
+        <v>2.155367676458335e-07</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>2.142350510355324e-07</v>
+        <v>2.043836926037991e-07</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>2.047508907085854e-07</v>
+        <v>1.950226211747845e-07</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>1.968804471097054e-07</v>
+        <v>1.873012111936653e-07</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>1.904747288749108e-07</v>
+        <v>1.810671204953111e-07</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>1.853847446402204e-07</v>
+        <v>1.761680069145915e-07</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>1.814615030416526e-07</v>
+        <v>1.724515282863763e-07</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>1.785560127152262e-07</v>
+        <v>1.69765342445535e-07</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>1.765192822969598e-07</v>
+        <v>1.679571072269373e-07</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>1.752023204228719e-07</v>
+        <v>1.66874480465453e-07</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>1.744561357289811e-07</v>
+        <v>1.663651199959515e-07</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>1.741317368513061e-07</v>
+        <v>1.662766836533026e-07</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>1.740801324258655e-07</v>
+        <v>1.664568292723758e-07</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>1.741523310886779e-07</v>
+        <v>1.66753214688041e-07</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>1.741993414757619e-07</v>
+        <v>1.670134977351677e-07</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>1.74072172223136e-07</v>
+        <v>1.670853362486255e-07</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>1.736218319668191e-07</v>
+        <v>1.668163880632842e-07</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>1.726993293428295e-07</v>
+        <v>1.660543110140133e-07</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>1.71155672987186e-07</v>
+        <v>1.646467629356826e-07</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>1.688418715359072e-07</v>
+        <v>1.624414016631616e-07</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>1.656089336250116e-07</v>
+        <v>1.592858850313201e-07</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>1.613078678905202e-07</v>
+        <v>1.5502787087503e-07</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>1.557919321489545e-07</v>
+        <v>1.495173329687345e-07</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>1.490624665262372e-07</v>
+        <v>1.427567227026261e-07</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>1.413582257260926e-07</v>
+        <v>1.349929528675453e-07</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>1.329393376738199e-07</v>
+        <v>1.264949438653683e-07</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>1.240659302947182e-07</v>
+        <v>1.175316160979713e-07</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>1.149981315140864e-07</v>
+        <v>1.083718899672306e-07</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>1.059960692572236e-07</v>
+        <v>9.928468587502224e-08</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>9.731987144942882e-08</v>
+        <v>9.053892422322259e-08</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>8.922966601600111e-08</v>
+        <v>8.240352541370775e-08</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>8.198558088223952e-08</v>
+        <v>7.514740984835399e-08</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>7.584774397344302e-08</v>
+        <v>6.903949792903745e-08</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>7.107628321491072e-08</v>
+        <v>6.434871005763439e-08</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>6.793132653194163e-08</v>
+        <v>6.134396663602098e-08</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>6.667300184983477e-08</v>
+        <v>6.02941880660734e-08</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>6.755878915182207e-08</v>
+        <v>6.146554426309936e-08</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>7.065021076097893e-08</v>
+        <v>6.492065880392852e-08</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>7.568156423768772e-08</v>
+        <v>7.038225835984323e-08</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>8.235606217254262e-08</v>
+        <v>7.754078083231213e-08</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>9.037691715613078e-08</v>
+        <v>8.608666412279619e-08</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>9.944734177904134e-08</v>
+        <v>9.571034613275864e-08</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>1.092705486318635e-07</v>
+        <v>1.061022647636627e-07</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>1.195497503051864e-07</v>
+        <v>1.169528579169716e-07</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>1.299881593895992e-07</v>
+        <v>1.279525634941485e-07</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>1.402889884756911e-07</v>
+        <v>1.387918193966566e-07</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>1.501554501540512e-07</v>
+        <v>1.491610635259592e-07</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>1.592907570152686e-07</v>
+        <v>1.587507337835193e-07</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>1.673981216499326e-07</v>
+        <v>1.672512680708003e-07</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>1.741807566486322e-07</v>
+        <v>1.743531042892654e-07</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>1.793494875916637e-07</v>
+        <v>1.797546533918816e-07</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>1.828104431267617e-07</v>
+        <v>1.833588663974144e-07</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>1.846769861787545e-07</v>
+        <v>1.852857298951815e-07</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>1.850724815346626e-07</v>
+        <v>1.856657053819245e-07</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>1.841202939815065e-07</v>
+        <v>1.846292543543846e-07</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>1.819437883063067e-07</v>
+        <v>1.823068383093031e-07</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>1.786663292960836e-07</v>
+        <v>1.788289187434216e-07</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>1.744112817378579e-07</v>
+        <v>1.743259571534815e-07</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>1.693020104186499e-07</v>
+        <v>1.689284150362239e-07</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>1.634618801254803e-07</v>
+        <v>1.627667538883903e-07</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>1.570142556453695e-07</v>
+        <v>1.559714352067221e-07</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>1.500825017653379e-07</v>
+        <v>1.486729204879606e-07</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>1.427899832724062e-07</v>
+        <v>1.410016712288472e-07</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>1.352600649535949e-07</v>
+        <v>1.330881489261233e-07</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>1.276161115959243e-07</v>
+        <v>1.250628150765303e-07</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>1.199814879864224e-07</v>
+        <v>1.170561311768171e-07</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>1.124795589120877e-07</v>
+        <v>1.091985587237021e-07</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>1.052336891599695e-07</v>
+        <v>1.01620559213957e-07</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>9.83672435170669e-08</v>
+        <v>9.445259414430051e-08</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>9.199519631219815e-08</v>
+        <v>8.781621063208365e-08</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>8.614497754206575e-08</v>
+        <v>8.173994497556404e-08</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>8.079194698655479e-08</v>
+        <v>7.61970118616568e-08</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>7.591077481774163e-08</v>
+        <v>7.115989330863263e-08</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>7.147613120770257e-08</v>
+        <v>6.660107133476207e-08</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>6.746268632851391e-08</v>
+        <v>6.249302795831569e-08</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>6.384511035225203e-08</v>
+        <v>5.880824519756417e-08</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>6.059807345099319e-08</v>
+        <v>5.551920507077806e-08</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>5.769624579681372e-08</v>
+        <v>5.259838959622798e-08</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>5.511429756178998e-08</v>
+        <v>5.001828079218455e-08</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>5.282689891799827e-08</v>
+        <v>4.775136067691836e-08</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>5.080872003751491e-08</v>
+        <v>4.577011126870001e-08</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>4.903443109241621e-08</v>
+        <v>4.404701458580013e-08</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>4.74787022547785e-08</v>
+        <v>4.255455264648928e-08</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>4.611620369667813e-08</v>
+        <v>4.12652074690381e-08</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>4.492160559019137e-08</v>
+        <v>4.015146107171717e-08</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>4.386957810739457e-08</v>
+        <v>3.918579547279711e-08</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>4.293479142036406e-08</v>
+        <v>3.834069269054853e-08</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>4.209194544189625e-08</v>
+        <v>3.758866702985075e-08</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>4.132229537538941e-08</v>
+        <v>3.690934923735124e-08</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>4.062184699565944e-08</v>
+        <v>3.629838332118594e-08</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>3.998862142080276e-08</v>
+        <v>3.575360115177942e-08</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>3.942063976891578e-08</v>
+        <v>3.527283459955617e-08</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>3.89159231580949e-08</v>
+        <v>3.485391553494076e-08</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>3.847249270643656e-08</v>
+        <v>3.449467582835777e-08</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>3.808836953203718e-08</v>
+        <v>3.419294735023169e-08</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>3.776157475299315e-08</v>
+        <v>3.394656197098711e-08</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>3.74901294874009e-08</v>
+        <v>3.375335156104855e-08</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>3.727205485335685e-08</v>
+        <v>3.361114799084055e-08</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>3.710537196895741e-08</v>
+        <v>3.351778313078769e-08</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>3.698810195229899e-08</v>
+        <v>3.347108885131446e-08</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>3.691826592147801e-08</v>
+        <v>3.346889702284545e-08</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>3.689388499459089e-08</v>
+        <v>3.350903951580518e-08</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>3.691298028973401e-08</v>
+        <v>3.358934820061811e-08</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>3.697357292500387e-08</v>
+        <v>3.370765494770907e-08</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>3.70736840184967e-08</v>
+        <v>3.386179162750214e-08</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>3.721133468830911e-08</v>
+        <v>3.404959011042228e-08</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>3.738454605253746e-08</v>
+        <v>3.426888226689388e-08</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>3.759133922927815e-08</v>
+        <v>3.45174999673415e-08</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>3.782973533662763e-08</v>
+        <v>3.47932750821897e-08</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>3.809775549268227e-08</v>
+        <v>3.509403948186299e-08</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>3.839342081553851e-08</v>
+        <v>3.541762503678592e-08</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>3.871475242329276e-08</v>
+        <v>3.576186361738306e-08</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>3.905977143404144e-08</v>
+        <v>3.612458709407894e-08</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>3.942649896588095e-08</v>
+        <v>3.650362733729809e-08</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>3.981295613690773e-08</v>
+        <v>3.689681621746508e-08</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>4.021716406521816e-08</v>
+        <v>3.730198560500444e-08</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>4.06371438689087e-08</v>
+        <v>3.771696737034072e-08</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>4.107091666607574e-08</v>
+        <v>3.813959338389846e-08</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>4.151650357481569e-08</v>
+        <v>3.856769551610219e-08</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>4.197192571322497e-08</v>
+        <v>3.899910563737649e-08</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>4.243520419940001e-08</v>
+        <v>3.943165561814589e-08</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>4.29043601514372e-08</v>
+        <v>3.98631773288349e-08</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>4.337741468743299e-08</v>
+        <v>4.029150263986812e-08</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>4.385238892548376e-08</v>
+        <v>4.071446342167007e-08</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>4.432730398368595e-08</v>
+        <v>4.112989154466529e-08</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>4.480268485898094e-08</v>
+        <v>4.153827000540769e-08</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>4.530238302140723e-08</v>
+        <v>4.196478004911363e-08</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>4.586294314204552e-08</v>
+        <v>4.244804257963775e-08</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>4.652103697019435e-08</v>
+        <v>4.302681305222671e-08</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>4.731333625515225e-08</v>
+        <v>4.373984692212711e-08</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>4.82765127462178e-08</v>
+        <v>4.46258996445856e-08</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>4.944723819268951e-08</v>
+        <v>4.572372667484875e-08</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>5.086218434386594e-08</v>
+        <v>4.707208346816324e-08</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>5.255802294904564e-08</v>
+        <v>4.870972547977566e-08</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>5.457142575752715e-08</v>
+        <v>5.067540816493263e-08</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>5.6939064518609e-08</v>
+        <v>5.300788697888079e-08</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>5.969761098158977e-08</v>
+        <v>5.574591737686675e-08</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>6.288373689576796e-08</v>
+        <v>5.892825481413713e-08</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>6.653411401044215e-08</v>
+        <v>6.259365474593857e-08</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>7.068541407490661e-08</v>
+        <v>6.678087262751335e-08</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>7.537430883847269e-08</v>
+        <v>7.152866391412108e-08</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>8.063747005042075e-08</v>
+        <v>7.687578406098994e-08</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>8.651156946006375e-08</v>
+        <v>8.286098852338115e-08</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>9.303327881669543e-08</v>
+        <v>8.95230327565365e-08</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>1.002392698696143e-07</v>
+        <v>9.690067221570258e-08</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>1.08166214368119e-07</v>
+        <v>1.050326623561261e-07</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>1.16850784061508e-07</v>
+        <v>1.139577586330535e-07</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>1.263296506990799e-07</v>
+        <v>1.237147165017316e-07</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>1.366392026317268e-07</v>
+        <v>1.343419938040445e-07</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>1.47741808625768e-07</v>
+        <v>1.458003160553815e-07</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>1.594272547111325e-07</v>
+        <v>1.578691694722378e-07</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>1.71460777771662e-07</v>
+        <v>1.70302259766532e-07</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>1.836076146911987e-07</v>
+        <v>1.828532926501832e-07</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>1.956330023535844e-07</v>
+        <v>1.952759738351101e-07</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>2.073021776426609e-07</v>
+        <v>2.073240090332316e-07</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>2.183803774422702e-07</v>
+        <v>2.187511039564665e-07</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>2.286328386362541e-07</v>
+        <v>2.293109643167337e-07</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>2.378247981084547e-07</v>
+        <v>2.38757295825952e-07</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>2.457214927427137e-07</v>
+        <v>2.468438041960403e-07</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>2.520881594228731e-07</v>
+        <v>2.533241951389174e-07</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>2.566900350327746e-07</v>
+        <v>2.579521743665022e-07</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>2.592923564562604e-07</v>
+        <v>2.604814475907134e-07</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>2.596646504793278e-07</v>
+        <v>2.606702745288144e-07</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>2.577962649400794e-07</v>
+        <v>2.585102689956156e-07</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>2.539972609898478e-07</v>
+        <v>2.543335024875903e-07</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>2.486030750451888e-07</v>
+        <v>2.484989839672069e-07</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>2.419491435226581e-07</v>
+        <v>2.413657223969339e-07</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>2.343709028388114e-07</v>
+        <v>2.332927267392398e-07</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>2.262037894102044e-07</v>
+        <v>2.246390059565931e-07</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>2.177832396533928e-07</v>
+        <v>2.157635690114622e-07</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>2.094446899849324e-07</v>
+        <v>2.070254248663158e-07</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>2.015235768213789e-07</v>
+        <v>1.987835824836223e-07</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>1.943185799668277e-07</v>
+        <v>1.913572236881899e-07</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>1.878781161513511e-07</v>
+        <v>1.847943610856516e-07</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>1.821462892599731e-07</v>
+        <v>1.790299804883268e-07</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>1.770668578435952e-07</v>
+        <v>1.739986935263477e-07</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>1.725835804531186e-07</v>
+        <v>1.696351118298461e-07</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>1.686402156394447e-07</v>
+        <v>1.658738470289544e-07</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>1.65180521953478e-07</v>
+        <v>1.626495107538075e-07</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>1.621482579461132e-07</v>
+        <v>1.598967146345311e-07</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>1.594871821682551e-07</v>
+        <v>1.575500703012608e-07</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>1.571410531708053e-07</v>
+        <v>1.555441893841288e-07</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>1.550536295046648e-07</v>
+        <v>1.53813683513267e-07</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>1.531686697207351e-07</v>
+        <v>1.522931643188076e-07</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>1.514299323699175e-07</v>
+        <v>1.509172434308827e-07</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>1.497811760031134e-07</v>
+        <v>1.496205324796242e-07</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>1.481661591712241e-07</v>
+        <v>1.483376430951644e-07</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>1.46528640425151e-07</v>
+        <v>1.470031869076354e-07</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>1.448123783157954e-07</v>
+        <v>1.455517755471691e-07</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>1.429611313940586e-07</v>
+        <v>1.439180206438977e-07</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>1.409198705141038e-07</v>
+        <v>1.420378927066312e-07</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>1.386757604196004e-07</v>
+        <v>1.398946576516832e-07</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>1.362680820799862e-07</v>
+        <v>1.3752999881467e-07</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>1.337393410251097e-07</v>
+        <v>1.349892139621223e-07</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>1.311320427848194e-07</v>
+        <v>1.323176008605709e-07</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>1.284886928889638e-07</v>
+        <v>1.295604572765465e-07</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>1.258517968673912e-07</v>
+        <v>1.267630809765798e-07</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>1.232638602499503e-07</v>
+        <v>1.239707697272017e-07</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>1.207673885664895e-07</v>
+        <v>1.21228821294943e-07</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>1.184048873468573e-07</v>
+        <v>1.185825334463343e-07</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>1.16218862120902e-07</v>
+        <v>1.160772039479065e-07</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>1.142518184184724e-07</v>
+        <v>1.137581305661903e-07</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>1.125376740034432e-07</v>
+        <v>1.116630340645388e-07</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>1.110675264381038e-07</v>
+        <v>1.09791854856388e-07</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>1.098191535206478e-07</v>
+        <v>1.081327813005428e-07</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>1.087703288120976e-07</v>
+        <v>1.066739980173434e-07</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>1.078988258734756e-07</v>
+        <v>1.054036896271303e-07</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>1.071824182658043e-07</v>
+        <v>1.043100407502436e-07</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>1.065988795501061e-07</v>
+        <v>1.033812360070237e-07</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>1.061265067604781e-07</v>
+        <v>1.026056396604395e-07</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>1.057534096276817e-07</v>
+        <v>1.019749834410693e-07</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>1.054764127397777e-07</v>
+        <v>1.014839897965877e-07</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>1.052926436206338e-07</v>
+        <v>1.011274851345236e-07</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>1.051992297941177e-07</v>
+        <v>1.009002958624063e-07</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>1.051932987840974e-07</v>
+        <v>1.007972483877649e-07</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>1.052719781144404e-07</v>
+        <v>1.008131691181283e-07</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>1.054323953090147e-07</v>
+        <v>1.009428844610257e-07</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>1.056716778916881e-07</v>
+        <v>1.011812208239863e-07</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>1.059869533863282e-07</v>
+        <v>1.015230046145392e-07</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>1.06375349316803e-07</v>
+        <v>1.019630622402135e-07</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>1.068339932069803e-07</v>
+        <v>1.024962201085382e-07</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>1.073600125807278e-07</v>
+        <v>1.031173046270425e-07</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>1.079505349619132e-07</v>
+        <v>1.038211422032555e-07</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>1.086026878744044e-07</v>
+        <v>1.046025592447063e-07</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>1.093135988420692e-07</v>
+        <v>1.05456382158924e-07</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>1.100803953887754e-07</v>
+        <v>1.063774373534377e-07</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>1.109002050383907e-07</v>
+        <v>1.073605512357766e-07</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>1.11770155314783e-07</v>
+        <v>1.084005502134696e-07</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>1.1268737374182e-07</v>
+        <v>1.094922606940461e-07</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>1.136489878433695e-07</v>
+        <v>1.106305090850349e-07</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>1.146521251432994e-07</v>
+        <v>1.118101217939652e-07</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>1.156939131654773e-07</v>
+        <v>1.130259252283662e-07</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>1.167714794337711e-07</v>
+        <v>1.14272745795767e-07</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>1.178819514720486e-07</v>
+        <v>1.155454099036966e-07</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>1.190224568041776e-07</v>
+        <v>1.168387439596842e-07</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>1.201901229540258e-07</v>
+        <v>1.181475743712588e-07</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>1.213820774454611e-07</v>
+        <v>1.194667275459497e-07</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>1.225958680366751e-07</v>
+        <v>1.207915756263264e-07</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>1.238351214944211e-07</v>
+        <v>1.221253852266762e-07</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>1.251080396056804e-07</v>
+        <v>1.234773642866572e-07</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>1.264229359558092e-07</v>
+        <v>1.248568659322843e-07</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>1.277881241301633e-07</v>
+        <v>1.262732432895723e-07</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>1.292119177140985e-07</v>
+        <v>1.27735849484536e-07</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>1.307026302929709e-07</v>
+        <v>1.292540376431902e-07</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>1.322685754521362e-07</v>
+        <v>1.308371608915498e-07</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>1.339180667769505e-07</v>
+        <v>1.324945723556296e-07</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>1.356594178527696e-07</v>
+        <v>1.342356251614443e-07</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>1.375009422649495e-07</v>
+        <v>1.360696724350088e-07</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>1.394509535988459e-07</v>
+        <v>1.38006067302338e-07</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>1.415177654398149e-07</v>
+        <v>1.400541628894466e-07</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>1.437096913732123e-07</v>
+        <v>1.422233123223493e-07</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>1.460350449843941e-07</v>
+        <v>1.445228687270612e-07</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>1.485021398587137e-07</v>
+        <v>1.469621852295946e-07</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>1.511192895815317e-07</v>
+        <v>1.495506149559689e-07</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>1.538948077382019e-07</v>
+        <v>1.522975110321968e-07</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>1.5683700791408e-07</v>
+        <v>1.552122265842929e-07</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>1.59954203694522e-07</v>
+        <v>1.583041147382722e-07</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>1.632547086648837e-07</v>
+        <v>1.615825286201494e-07</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>1.667468364105212e-07</v>
+        <v>1.650568213559395e-07</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>1.704389005167903e-07</v>
+        <v>1.687363460716571e-07</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>1.743392145690468e-07</v>
+        <v>1.72630455893317e-07</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>1.784560921526468e-07</v>
+        <v>1.767485039469343e-07</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>1.827978468529462e-07</v>
+        <v>1.810998433585236e-07</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>1.873727922553007e-07</v>
+        <v>1.856938272540997e-07</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>1.921892419450663e-07</v>
+        <v>1.905398087596775e-07</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>1.97255509507599e-07</v>
+        <v>1.956471410012718e-07</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>2.025799085282546e-07</v>
+        <v>2.010251771048974e-07</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>2.081707525923892e-07</v>
+        <v>2.066832701965692e-07</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>2.140363552853585e-07</v>
+        <v>2.126307734023019e-07</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>2.201850301925184e-07</v>
+        <v>2.188770398481103e-07</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>2.266250908992249e-07</v>
+        <v>2.254314226600093e-07</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>2.333648509908338e-07</v>
+        <v>2.323032749640137e-07</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>2.404126240527012e-07</v>
+        <v>2.395019498861383e-07</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>2.477767236701829e-07</v>
+        <v>2.470368005523979e-07</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>2.55465410314846e-07</v>
+        <v>2.549171009579712e-07</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>2.63483638600538e-07</v>
+        <v>2.631471999120908e-07</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>2.718311694213845e-07</v>
+        <v>2.717237084332105e-07</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>2.805073086602604e-07</v>
+        <v>2.806425596476281e-07</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>2.895113622000409e-07</v>
+        <v>2.898996866816417e-07</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>2.988426359236009e-07</v>
+        <v>2.99491022661549e-07</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>3.085004357138156e-07</v>
+        <v>3.094125007136482e-07</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>3.1848406745356e-07</v>
+        <v>3.19660053964237e-07</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>3.28792837025709e-07</v>
+        <v>3.302296155396136e-07</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>3.39426050313138e-07</v>
+        <v>3.411171185660758e-07</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>3.503830131987219e-07</v>
+        <v>3.523184961699218e-07</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>3.616630315653355e-07</v>
+        <v>3.638296814774491e-07</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>3.732654112958541e-07</v>
+        <v>3.75646607614956e-07</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>3.851894582731528e-07</v>
+        <v>3.877652077087404e-07</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>3.974344783801065e-07</v>
+        <v>4.001814148851001e-07</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>4.099997774995781e-07</v>
+        <v>4.128911622703207e-07</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>4.228846615144668e-07</v>
+        <v>4.258903829907249e-07</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>4.360884363076358e-07</v>
+        <v>4.391750101725983e-07</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>4.496104077619602e-07</v>
+        <v>4.527409769422388e-07</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>4.634503982320459e-07</v>
+        <v>4.665848659113846e-07</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>4.776230879312658e-07</v>
+        <v>4.807219440889144e-07</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>4.921598866253114e-07</v>
+        <v>4.951885166160817e-07</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>5.070930965430266e-07</v>
+        <v>5.100220109449814e-07</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>5.22455019913255e-07</v>
+        <v>5.252598545277074e-07</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>5.382779589648409e-07</v>
+        <v>5.409394748163548e-07</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>5.545942159266274e-07</v>
+        <v>5.570982992630177e-07</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>5.71436093027459e-07</v>
+        <v>5.737737553197905e-07</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>5.888358924961789e-07</v>
+        <v>5.910032704387678e-07</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>6.06825916561631e-07</v>
+        <v>6.088242720720438e-07</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>6.254384674526591e-07</v>
+        <v>6.272741876717132e-07</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>6.447058473981072e-07</v>
+        <v>6.463904446898702e-07</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>6.646603586268187e-07</v>
+        <v>6.662104705786096e-07</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>6.853343033676376e-07</v>
+        <v>6.867716927900255e-07</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>7.067599838494076e-07</v>
+        <v>7.081115387762125e-07</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>7.289676022206796e-07</v>
+        <v>7.302652474183686e-07</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>7.519110560558792e-07</v>
+        <v>7.531885377951541e-07</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>7.754481016205504e-07</v>
+        <v>7.767369365919755e-07</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>7.994303612215112e-07</v>
+        <v>8.00759578070294e-07</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>8.237094571655801e-07</v>
+        <v>8.251055964915723e-07</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>8.481370117595749e-07</v>
+        <v>8.496241261172721e-07</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>8.725646473103141e-07</v>
+        <v>8.741643012088558e-07</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>8.968439861246157e-07</v>
+        <v>8.98575256027785e-07</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>9.208266505092982e-07</v>
+        <v>9.227061248355221e-07</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>9.443642627711792e-07</v>
+        <v>9.464060418935292e-07</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>9.673103767541871e-07</v>
+        <v>9.695261427413041e-07</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>9.895877217923337e-07</v>
+        <v>9.919892360890292e-07</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>1.011205610085021e-06</v>
+        <v>1.013807839711207e-06</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>1.032178821919293e-06</v>
+        <v>1.035000136903154e-06</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.052522137582195e-06</v>
+        <v>1.05558431096019e-06</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.072250337360773e-06</v>
+        <v>1.075578545177632e-06</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.091378201542071e-06</v>
+        <v>1.095001022850797e-06</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.109920510413135e-06</v>
+        <v>1.113869927275004e-06</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.127892044260994e-06</v>
+        <v>1.132203441745554e-06</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.145307583372726e-06</v>
+        <v>1.1500197495578e-06</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.162181908035359e-06</v>
+        <v>1.16733703400704e-06</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.178529798535939e-06</v>
+        <v>1.184173478388595e-06</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>1.19436603516151e-06</v>
+        <v>1.200547265997781e-06</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>1.209686057284337e-06</v>
+        <v>1.216453069227483e-06</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>1.224378738594535e-06</v>
+        <v>1.231756018751173e-06</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>1.238296447545994e-06</v>
+        <v>1.246276869314043e-06</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>1.251291520291672e-06</v>
+        <v>1.259836336396125e-06</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>1.263216292984524e-06</v>
+        <v>1.272255135477453e-06</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>1.273923101777507e-06</v>
+        <v>1.283353982038057e-06</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.283264282823578e-06</v>
+        <v>1.292953591557971e-06</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>1.291092172275692e-06</v>
+        <v>1.300874679517227e-06</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>1.297259106286806e-06</v>
+        <v>1.306937961395856e-06</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>1.301617421009876e-06</v>
+        <v>1.310964152673891e-06</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.304019449753365e-06</v>
+        <v>1.312773971055305e-06</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.304298026822314e-06</v>
+        <v>1.312203379355092e-06</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.302219928847588e-06</v>
+        <v>1.309139986954737e-06</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>1.297537957463146e-06</v>
+        <v>1.30348232945461e-06</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>1.290004914302943e-06</v>
+        <v>1.295128942455077e-06</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>1.279373601000936e-06</v>
+        <v>1.283978361556509e-06</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>1.265414076119876e-06</v>
+        <v>1.269941746839656e-06</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>1.248406051446135e-06</v>
+        <v>1.253303100343414e-06</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>1.229210720688789e-06</v>
+        <v>1.23477181307439e-06</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>1.208720978558282e-06</v>
+        <v>1.215080467226607e-06</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>1.187829719765063e-06</v>
+        <v>1.194961644994087e-06</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>1.167313622111263e-06</v>
+        <v>1.175051255888209e-06</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>1.147262723835585e-06</v>
+        <v>1.155414042198882e-06</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>1.127515789593461e-06</v>
+        <v>1.135905729372206e-06</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>1.107911208615863e-06</v>
+        <v>1.116381730565046e-06</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>1.088287370133765e-06</v>
+        <v>1.096697458934264e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>1.068482663378141e-06</v>
+        <v>1.076708327636726e-06</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>1.048335477579963e-06</v>
+        <v>1.056269749829295e-06</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>1.027684201970207e-06</v>
+        <v>1.035237138668836e-06</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>1.006367225779845e-06</v>
+        <v>1.013465907312213e-06</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>9.842229382398717e-07</v>
+        <v>9.908114689163111e-07</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>9.610897285811965e-07</v>
+        <v>9.671292366379287e-07</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>9.368376143691405e-07</v>
+        <v>9.423060092062698e-07</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>9.11609589856171e-07</v>
+        <v>9.164994668160737e-07</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>8.856882313303615e-07</v>
+        <v>8.900058003413806e-07</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>8.593572399584733e-07</v>
+        <v>8.631223169009515e-07</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>8.329003169073666e-07</v>
+        <v>8.361463236136491e-07</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>8.066011633438763e-07</v>
+        <v>8.0937512759831e-07</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>7.807434804348383e-07</v>
+        <v>7.831060359737717e-07</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>7.556109693470876e-07</v>
+        <v>7.576363558588712e-07</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>7.314873312474598e-07</v>
+        <v>7.332633943724457e-07</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>7.08651613293734e-07</v>
+        <v>7.102794615755463e-07</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>6.872112899504332e-07</v>
+        <v>6.887926481492583e-07</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>6.670562208580781e-07</v>
+        <v>6.686773894814606e-07</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>6.480622397890197e-07</v>
+        <v>6.497930612399282e-07</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>6.301051805156086e-07</v>
+        <v>6.319990390924369e-07</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>6.130608768101958e-07</v>
+        <v>6.15154698706762e-07</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>5.968051624451315e-07</v>
+        <v>5.991194157506788e-07</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>5.812138711927669e-07</v>
+        <v>5.837525658919628e-07</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>5.661628368254521e-07</v>
+        <v>5.689135247983892e-07</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>5.515278931155378e-07</v>
+        <v>5.544616681377335e-07</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>5.37184873835375e-07</v>
+        <v>5.40256371577771e-07</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>5.230096127573143e-07</v>
+        <v>5.26157010786277e-07</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>5.088779436537062e-07</v>
+        <v>5.120229614310268e-07</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>4.946657002969016e-07</v>
+        <v>4.977135991797961e-07</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>4.802488675298457e-07</v>
+        <v>4.830884676643692e-07</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>4.656450123482155e-07</v>
+        <v>4.681645250421547e-07</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>4.512759799531566e-07</v>
+        <v>4.534082159397673e-07</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>4.376353063986422e-07</v>
+        <v>4.393656926402722e-07</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>4.252165277386451e-07</v>
+        <v>4.265831074267341e-07</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>4.145131800271382e-07</v>
+        <v>4.156066125822179e-07</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>4.060187993180946e-07</v>
+        <v>4.069823603897885e-07</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>4.002269216654871e-07</v>
+        <v>4.012565031325108e-07</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>3.972363868346372e-07</v>
+        <v>3.985407781103956e-07</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>3.951322958242174e-07</v>
+        <v>3.967305392488396e-07</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>3.918363989144539e-07</v>
+        <v>3.935389558211318e-07</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>3.874417062001981e-07</v>
+        <v>3.890580512107131e-07</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>3.826585689515689e-07</v>
+        <v>3.84056214389972e-07</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>3.781973815055089e-07</v>
+        <v>3.793018815157699e-07</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>3.747685381989901e-07</v>
+        <v>3.755634887449996e-07</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>3.730824333689564e-07</v>
+        <v>3.736094722345236e-07</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>3.738494613523694e-07</v>
+        <v>3.742082681412241e-07</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>3.777526239864707e-07</v>
+        <v>3.780983917303927e-07</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>3.847893489580008e-07</v>
+        <v>3.852695040173122e-07</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>3.94239132474312e-07</v>
+        <v>3.949270677811389e-07</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>4.053476024623174e-07</v>
+        <v>4.062395513989964e-07</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>4.173603868489299e-07</v>
+        <v>4.183754232480079e-07</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>4.295548004060711e-07</v>
+        <v>4.305463299111138e-07</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>4.414345297560729e-07</v>
+        <v>4.422723844766933e-07</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>4.526017431842592e-07</v>
+        <v>4.532078964642547e-07</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>4.626590131307088e-07</v>
+        <v>4.630077261163957e-07</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>4.712089120355012e-07</v>
+        <v>4.713267336757146e-07</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>4.778559553909877e-07</v>
+        <v>4.778213929477383e-07</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>4.823574799272231e-07</v>
+        <v>4.82275084608903e-07</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>4.847312811713977e-07</v>
+        <v>4.84687481334336e-07</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>4.850205627893233e-07</v>
+        <v>4.850793554016577e-07</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>4.832685284468116e-07</v>
+        <v>4.834714790884888e-07</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>4.795183818096745e-07</v>
+        <v>4.798846246724498e-07</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>4.738191444384787e-07</v>
+        <v>4.743461968920117e-07</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>4.663074153589588e-07</v>
+        <v>4.669834397116092e-07</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>4.571874801794733e-07</v>
+        <v>4.58000760507571e-07</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>4.466653812674154e-07</v>
+        <v>4.47604569379893e-07</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>4.34947160990178e-07</v>
+        <v>4.360012764285709e-07</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>4.222388617151542e-07</v>
+        <v>4.233972917536007e-07</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>4.087465258097376e-07</v>
+        <v>4.099990254549787e-07</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>3.946761956413209e-07</v>
+        <v>3.960128876327004e-07</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>3.802339135772974e-07</v>
+        <v>3.816452883867619e-07</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>3.656253057380306e-07</v>
+        <v>3.671022205903125e-07</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>3.510080661424571e-07</v>
+        <v>3.525416321861685e-07</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>3.364480786649674e-07</v>
+        <v>3.380294448577662e-07</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>3.220008554052654e-07</v>
+        <v>3.236211840994033e-07</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>3.077219084630552e-07</v>
+        <v>3.093723754053777e-07</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>2.936667499380407e-07</v>
+        <v>2.953385442699873e-07</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>2.798908919299258e-07</v>
+        <v>2.815752161875295e-07</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>2.664498465384273e-07</v>
+        <v>2.681379166523152e-07</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>2.533991258632107e-07</v>
+        <v>2.550821711586035e-07</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>2.407942420040304e-07</v>
+        <v>2.424635052007427e-07</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>2.286907070605415e-07</v>
+        <v>2.303374442729818e-07</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>2.171440331324949e-07</v>
+        <v>2.187595138696654e-07</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>2.062097323195601e-07</v>
+        <v>2.077852394850569e-07</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>1.959433167214526e-07</v>
+        <v>1.974701466134654e-07</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>1.864002498435513e-07</v>
+        <v>1.878697129663677e-07</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>1.776128834939948e-07</v>
+        <v>1.790166905131509e-07</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>1.69553549089831e-07</v>
+        <v>1.70884813146172e-07</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>1.62184960781106e-07</v>
+        <v>1.634383580949041e-07</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>1.554698327178665e-07</v>
+        <v>1.566416025888203e-07</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>1.49370879050159e-07</v>
+        <v>1.50458823857394e-07</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>1.438508139280299e-07</v>
+        <v>1.448542991300983e-07</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>1.388723515015259e-07</v>
+        <v>1.397923056364063e-07</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>1.343982059206932e-07</v>
+        <v>1.352371206057912e-07</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>1.303910913355786e-07</v>
+        <v>1.311530212677263e-07</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>1.268137218962284e-07</v>
+        <v>1.275042848516847e-07</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>1.236288117526893e-07</v>
+        <v>1.242551885871397e-07</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>1.207990750550075e-07</v>
+        <v>1.213700097035644e-07</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>1.182872259532297e-07</v>
+        <v>1.188130254304319e-07</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>1.160585523434759e-07</v>
+        <v>1.165504287803539e-07</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>1.140982844210419e-07</v>
+        <v>1.14563256934485e-07</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>1.124009640118617e-07</v>
+        <v>1.128394782414136e-07</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>1.109611854880687e-07</v>
+        <v>1.113671001628029e-07</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>1.09773543221796e-07</v>
+        <v>1.101341301603159e-07</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>1.088326315851769e-07</v>
+        <v>1.091285756956158e-07</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>1.081330449503448e-07</v>
+        <v>1.083384442303658e-07</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>1.076693776894326e-07</v>
+        <v>1.07751743226229e-07</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>1.074362241745739e-07</v>
+        <v>1.073564801448685e-07</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>1.073977071344861e-07</v>
+        <v>1.071174632903415e-07</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>1.073576379818771e-07</v>
+        <v>1.06877450198541e-07</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>1.070672950162067e-07</v>
+        <v>1.064392030576476e-07</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>1.062779260652909e-07</v>
+        <v>1.056054608566842e-07</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>1.047408226861116e-07</v>
+        <v>1.041790029883099e-07</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>1.026006164333695e-07</v>
+        <v>1.023260359978641e-07</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>1.012215592214325e-07</v>
+        <v>1.013258295111289e-07</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>1.006076996657937e-07</v>
+        <v>1.010296314827251e-07</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>9.965527026023036e-08</v>
+        <v>1.00151789875167e-07</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>9.783656621198935e-08</v>
+        <v>9.81102162805036e-08</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>9.560088305605322e-08</v>
+        <v>9.550939259397363e-08</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>9.348787636049637e-08</v>
+        <v>9.306354328593763e-08</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>9.200655851354998e-08</v>
+        <v>9.144545877447161e-08</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>9.116033613766001e-08</v>
+        <v>9.064427667648573e-08</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>9.05378137970157e-08</v>
+        <v>9.008826167538013e-08</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>8.974244252577179e-08</v>
+        <v>8.922953551447941e-08</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>8.867876262930488e-08</v>
+        <v>8.796935235540154e-08</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>8.743911246241746e-08</v>
+        <v>8.64891031834618e-08</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>8.611863700205097e-08</v>
+        <v>8.49743490214095e-08</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>8.478183402811324e-08</v>
+        <v>8.355383897707498e-08</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>8.340945364708989e-08</v>
+        <v>8.220107580111237e-08</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>8.196807128605388e-08</v>
+        <v>8.086328608326247e-08</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>8.042426237207811e-08</v>
+        <v>7.948769641326613e-08</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>7.874460233223552e-08</v>
+        <v>7.80215333808641e-08</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>7.689566659359907e-08</v>
+        <v>7.641202357579724e-08</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>7.484403058324171e-08</v>
+        <v>7.460639358780633e-08</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>7.255626972823633e-08</v>
+        <v>7.255187000663221e-08</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>6.999895945565587e-08</v>
+        <v>7.019567942201563e-08</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>6.717480787777409e-08</v>
+        <v>6.752301589068831e-08</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>6.43664919917924e-08</v>
+        <v>6.481325889562127e-08</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>6.198741428567519e-08</v>
+        <v>6.248315152085274e-08</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>6.045171494070096e-08</v>
+        <v>6.095021200306739e-08</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>6.017353413814836e-08</v>
+        <v>6.063195857894989e-08</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>6.156693997232706e-08</v>
+        <v>6.194583822255936e-08</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>6.490046610319152e-08</v>
+        <v>6.516542771797055e-08</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>6.999188657986128e-08</v>
+        <v>7.011869885456837e-08</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>7.657197014822214e-08</v>
+        <v>7.654761305888904e-08</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>8.437148555416e-08</v>
+        <v>8.419413175746875e-08</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>9.31212015435607e-08</v>
+        <v>9.280021637684377e-08</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>1.025518868623102e-07</v>
+        <v>1.021078283435504e-07</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>1.123943102562942e-07</v>
+        <v>1.118589290841247e-07</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>1.223792404713987e-07</v>
+        <v>1.217954800251031e-07</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>1.322351062332164e-07</v>
+        <v>1.316558144812901e-07</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>1.4166410704575e-07</v>
+        <v>1.411375983652271e-07</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>1.503519714128348e-07</v>
+        <v>1.499129599353144e-07</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>1.579841728941295e-07</v>
+        <v>1.57653632168765e-07</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>1.6424618504924e-07</v>
+        <v>1.640313480427388e-07</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>1.688253146029635e-07</v>
+        <v>1.687197187738088e-07</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>1.716148838782401e-07</v>
+        <v>1.716034367282573e-07</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>1.729001009804012e-07</v>
+        <v>1.729687158185393e-07</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>1.73010071846111e-07</v>
+        <v>1.731467471568507e-07</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>1.72273902412037e-07</v>
+        <v>1.724687218553915e-07</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>1.710190426549779e-07</v>
+        <v>1.712641691783053e-07</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>1.694503953006652e-07</v>
+        <v>1.697396353907325e-07</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>1.675682245058843e-07</v>
+        <v>1.67896300544359e-07</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>1.653533546280526e-07</v>
+        <v>1.65715835768349e-07</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>1.627866100245875e-07</v>
+        <v>1.631799121918671e-07</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>1.598488150529063e-07</v>
+        <v>1.602702009440774e-07</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>1.565207940704266e-07</v>
+        <v>1.569683731541443e-07</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>1.527891015067774e-07</v>
+        <v>1.532617526586269e-07</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>1.486877214436231e-07</v>
+        <v>1.491844525726271e-07</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>1.442740608989504e-07</v>
+        <v>1.447936927017839e-07</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>1.396056925749306e-07</v>
+        <v>1.40146856298929e-07</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>1.347401891737351e-07</v>
+        <v>1.353013266168941e-07</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.297351233975353e-07</v>
+        <v>1.303144869085111e-07</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>1.246480679485027e-07</v>
+        <v>1.252437204266117e-07</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.195365955288085e-07</v>
+        <v>1.201464104240276e-07</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.144582788406242e-07</v>
+        <v>1.150799401535905e-07</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.094706905861212e-07</v>
+        <v>1.101016928681323e-07</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.04631403467471e-07</v>
+        <v>1.052690518204846e-07</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>9.999799018684474e-08</v>
+        <v>1.006394002634792e-07</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>9.562538869273565e-08</v>
+        <v>9.626750145652321e-08</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>9.153188965590786e-08</v>
+        <v>9.217167668440338e-08</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>8.77089284218746e-08</v>
+        <v>8.834354235389434e-08</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>8.414732349603585e-08</v>
+        <v>8.477410148728093e-08</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>8.083789338379148e-08</v>
+        <v>8.145435710684793e-08</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>7.777145659054145e-08</v>
+        <v>7.837531223488019e-08</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>7.493883162168568e-08</v>
+        <v>7.55279698936625e-08</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>7.23308369826241e-08</v>
+        <v>7.290333310547969e-08</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>6.993829117875664e-08</v>
+        <v>7.049240489261657e-08</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>6.77520127154832e-08</v>
+        <v>6.828618827735793e-08</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>6.576282009820554e-08</v>
+        <v>6.627568628199045e-08</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>6.396153183231813e-08</v>
+        <v>6.445190192879341e-08</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>6.233896642322783e-08</v>
+        <v>6.280583824005866e-08</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>6.088594237632832e-08</v>
+        <v>6.132849823806464e-08</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>5.959327819702512e-08</v>
+        <v>6.001088494510189e-08</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>5.84517923907142e-08</v>
+        <v>5.88440013834512e-08</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>5.74523034627968e-08</v>
+        <v>5.78188505753987e-08</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>5.658562991867284e-08</v>
+        <v>5.692643554322919e-08</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>5.584259026374226e-08</v>
+        <v>5.615775930922752e-08</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>5.5214003003405e-08</v>
+        <v>5.550382489567849e-08</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>5.469068664306095e-08</v>
+        <v>5.495563532486691e-08</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>5.426345968811008e-08</v>
+        <v>5.450419361907761e-08</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>5.392314064395226e-08</v>
+        <v>5.414050280059537e-08</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>5.366054801598746e-08</v>
+        <v>5.385556589170505e-08</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>5.346650030961559e-08</v>
+        <v>5.364038591469142e-08</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>5.333181603023657e-08</v>
+        <v>5.348596589183931e-08</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>5.324731368325034e-08</v>
+        <v>5.338330884543354e-08</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>5.320381177405681e-08</v>
+        <v>5.33234177977589e-08</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>5.319212880805592e-08</v>
+        <v>5.329729577110024e-08</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>5.320308329064758e-08</v>
+        <v>5.329594578774234e-08</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>5.322749372723174e-08</v>
+        <v>5.331037086997003e-08</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>5.325617862320829e-08</v>
+        <v>5.333157404006811e-08</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>5.327995648397722e-08</v>
+        <v>5.335055832032143e-08</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>5.328964581493837e-08</v>
+        <v>5.335832673301476e-08</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>5.327606512149173e-08</v>
+        <v>5.334588230043293e-08</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>5.32300329090372e-08</v>
+        <v>5.330422804486076e-08</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>5.31423676829747e-08</v>
+        <v>5.322436698858305e-08</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>5.300394536054767e-08</v>
+        <v>5.309735782472345e-08</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>5.281294970680277e-08</v>
+        <v>5.292134548493269e-08</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>5.258195585308464e-08</v>
+        <v>5.270842985135629e-08</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>5.23252204422866e-08</v>
+        <v>5.247234132612882e-08</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>5.205700011730194e-08</v>
+        <v>5.22268103113848e-08</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>5.179155152102403e-08</v>
+        <v>5.198556720925883e-08</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>5.154313129634614e-08</v>
+        <v>5.176234242188545e-08</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>5.132599608616163e-08</v>
+        <v>5.15708663513992e-08</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>5.115440253336378e-08</v>
+        <v>5.142486939993462e-08</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>5.104260728084593e-08</v>
+        <v>5.13380819696263e-08</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>5.100486697150139e-08</v>
+        <v>5.132423446260876e-08</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>5.105543824822349e-08</v>
+        <v>5.139705728101662e-08</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>5.120857775390531e-08</v>
+        <v>5.157028082698415e-08</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>5.147854213144083e-08</v>
+        <v>5.18576355026466e-08</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>5.187958802372228e-08</v>
+        <v>5.227285171013737e-08</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>5.242597207364391e-08</v>
+        <v>5.282965985159203e-08</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>5.313195092409876e-08</v>
+        <v>5.354179032914482e-08</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>5.401178121798014e-08</v>
+        <v>5.442297354493028e-08</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>5.507971959818135e-08</v>
+        <v>5.548693990108297e-08</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>5.635002270759573e-08</v>
+        <v>5.674741979973744e-08</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>5.78369471891166e-08</v>
+        <v>5.821814364302825e-08</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>5.955474968563725e-08</v>
+        <v>5.991284183308993e-08</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>6.151768684005102e-08</v>
+        <v>6.184524477205708e-08</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>6.374001529525122e-08</v>
+        <v>6.402908286206423e-08</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>6.623599169413117e-08</v>
+        <v>6.647808650524593e-08</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>6.90198726795842e-08</v>
+        <v>6.920598610373674e-08</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>7.210591489450361e-08</v>
+        <v>7.222651205967121e-08</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>7.550837498178273e-08</v>
+        <v>7.555339477518391e-08</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>7.923907516082002e-08</v>
+        <v>7.919830058164598e-08</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>8.328303879587204e-08</v>
+        <v>8.315017390788846e-08</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>8.760868684361578e-08</v>
+        <v>8.738388252592421e-08</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>9.218419285117004e-08</v>
+        <v>9.187408443701879e-08</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>9.697773036565374e-08</v>
+        <v>9.659543764243791e-08</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>1.019574729341857e-07</v>
+        <v>1.015226001434472e-07</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>1.070915941038848e-07</v>
+        <v>1.066302299413122e-07</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>1.123482674218699e-07</v>
+        <v>1.118929850372986e-07</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>1.176956664352598e-07</v>
+        <v>1.17285523432672e-07</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>1.231019646911733e-07</v>
+        <v>1.227825031286981e-07</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>1.285329690693268e-07</v>
+        <v>1.283548320865814e-07</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>1.339356911083155e-07</v>
+        <v>1.339436366082664e-07</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>1.392481793701863e-07</v>
+        <v>1.394758409489355e-07</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>1.444084272177469e-07</v>
+        <v>1.448782818992801e-07</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>1.493544280138048e-07</v>
+        <v>1.500777962499917e-07</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>1.540241751211675e-07</v>
+        <v>1.550012207917615e-07</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>1.583556619026425e-07</v>
+        <v>1.595753923152811e-07</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>1.622868817210372e-07</v>
+        <v>1.637271476112416e-07</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>1.657558279391592e-07</v>
+        <v>1.673833234703345e-07</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>1.687004939198134e-07</v>
+        <v>1.704707566832484e-07</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>1.710588730258151e-07</v>
+        <v>1.729162840406829e-07</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>1.727689586199627e-07</v>
+        <v>1.746467423333199e-07</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>1.737687440650701e-07</v>
+        <v>1.755889683518573e-07</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>1.739962227239412e-07</v>
+        <v>1.75669798886983e-07</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>1.734047173529576e-07</v>
+        <v>1.748356978325284e-07</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>1.72042471575379e-07</v>
+        <v>1.731546617206154e-07</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.699940155780167e-07</v>
+        <v>1.707411468550457e-07</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.673439524179631e-07</v>
+        <v>1.677097028396281e-07</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.641768851523107e-07</v>
+        <v>1.641748792781714e-07</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.60577416838152e-07</v>
+        <v>1.602512257744844e-07</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.566301505325797e-07</v>
+        <v>1.560532919323759e-07</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>1.524196892926862e-07</v>
+        <v>1.516956273556548e-07</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>1.48030636175564e-07</v>
+        <v>1.472927816481299e-07</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>1.435469531873483e-07</v>
+        <v>1.429568784481931e-07</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>1.39038696867654e-07</v>
+        <v>1.387474181503429e-07</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>1.345624688683057e-07</v>
+        <v>1.346729830557702e-07</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>1.301743199365691e-07</v>
+        <v>1.307400706463662e-07</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>1.259303008197098e-07</v>
+        <v>1.269551784040222e-07</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>1.218864622649933e-07</v>
+        <v>1.233248038106292e-07</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>1.180988550196852e-07</v>
+        <v>1.198554443480786e-07</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>1.146235298310512e-07</v>
+        <v>1.165535974982614e-07</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>1.115165374463568e-07</v>
+        <v>1.134257607430688e-07</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>1.088338223714474e-07</v>
+        <v>1.104784275027756e-07</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>1.065966940358365e-07</v>
+        <v>1.077167670964076e-07</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>1.0474216724e-07</v>
+        <v>1.051427262537721e-07</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>1.031946774647653e-07</v>
+        <v>1.02757770796458e-07</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>1.018786601909599e-07</v>
+        <v>1.005633665460541e-07</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>1.00718550899411e-07</v>
+        <v>9.856097932414906e-08</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>9.963878507094592e-08</v>
+        <v>9.675207495233183e-08</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>9.856379818639208e-08</v>
+        <v>9.513811925219114e-08</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>9.74294620231377e-08</v>
+        <v>9.372083395580841e-08</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>9.625953853596958e-08</v>
+        <v>9.25039075174875e-08</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>9.511854027031037e-08</v>
+        <v>9.14919402692251e-08</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>9.407120295374688e-08</v>
+        <v>9.068953753717455e-08</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>9.318226231386604e-08</v>
+        <v>9.010130464748928e-08</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>9.251645407825478e-08</v>
+        <v>8.973184692632271e-08</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>9.213755239867897e-08</v>
+        <v>8.958589897712807e-08</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>9.207854847100523e-08</v>
+        <v>8.967233396147665e-08</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>9.233589185623267e-08</v>
+        <v>9.000493781410268e-08</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>9.290390817533829e-08</v>
+        <v>9.059778201896787e-08</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>9.377692304929583e-08</v>
+        <v>9.146493806003041e-08</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>9.49492620990833e-08</v>
+        <v>9.262047742125286e-08</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>9.641525094567596e-08</v>
+        <v>9.40784715865949e-08</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>9.81692152100497e-08</v>
+        <v>9.585299204001701e-08</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>1.002051318358423e-07</v>
+        <v>9.795714664789947e-08</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>1.02508665536372e-07</v>
+        <v>1.003810712896652e-07</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>1.050570028845333e-07</v>
+        <v>1.030914713424822e-07</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>1.078269485897982e-07</v>
+        <v>1.060539968516501e-07</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>1.107953073616392e-07</v>
+        <v>1.092342978624688e-07</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>1.139388839095283e-07</v>
+        <v>1.12598024420238e-07</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>1.17234482942938e-07</v>
+        <v>1.161108265702576e-07</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>1.206589091713404e-07</v>
+        <v>1.197383543578273e-07</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>1.241889673042078e-07</v>
+        <v>1.234462578282469e-07</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>1.278019077343213e-07</v>
+        <v>1.272020293048503e-07</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>1.314782428711804e-07</v>
+        <v>1.309866449943251e-07</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>1.351999347947375e-07</v>
+        <v>1.347870734660494e-07</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>1.389489521619595e-07</v>
+        <v>1.385903104761721e-07</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>1.427072636298133e-07</v>
+        <v>1.423833517808416e-07</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>1.464568378552657e-07</v>
+        <v>1.461531931362068e-07</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>1.501796434952838e-07</v>
+        <v>1.498868302984164e-07</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>1.538576492068345e-07</v>
+        <v>1.535712590236189e-07</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>1.574728236468846e-07</v>
+        <v>1.571934750679632e-07</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>1.610068143834186e-07</v>
+        <v>1.607401337411124e-07</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>1.644099211859681e-07</v>
+        <v>1.64164652688452e-07</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>1.675752305242334e-07</v>
+        <v>1.673597870353207e-07</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>1.703897400694295e-07</v>
+        <v>1.702118360329643e-07</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>1.727404474927713e-07</v>
+        <v>1.726070989326284e-07</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>1.745143504654735e-07</v>
+        <v>1.744318749855583e-07</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>1.755984466587511e-07</v>
+        <v>1.755724634429998e-07</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>1.758797337438191e-07</v>
+        <v>1.759151635561982e-07</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>1.752452093918921e-07</v>
+        <v>1.753462745763994e-07</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>1.735819267182508e-07</v>
+        <v>1.737521507679447e-07</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>1.708259038406605e-07</v>
+        <v>1.71067730790266e-07</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>1.670519518508365e-07</v>
+        <v>1.673656674320689e-07</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>1.623593040923808e-07</v>
+        <v>1.627428458985693e-07</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>1.568471939089256e-07</v>
+        <v>1.572961513950131e-07</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>1.506148974392797e-07</v>
+        <v>1.511225118498015e-07</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>1.439101196024815e-07</v>
+        <v>1.444670341747147e-07</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>1.374613089291258e-07</v>
+        <v>1.380547598300515e-07</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>1.32094068821361e-07</v>
+        <v>1.327077216417668e-07</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>1.286340026813293e-07</v>
+        <v>1.292479524358094e-07</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>1.279067076585838e-07</v>
+        <v>1.284974788692513e-07</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>1.303193612989301e-07</v>
+        <v>1.308655099580519e-07</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>1.347274865092009e-07</v>
+        <v>1.352303742284801e-07</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>1.396270044470131e-07</v>
+        <v>1.401156129441586e-07</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>1.435426469716528e-07</v>
+        <v>1.440724341840485e-07</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>1.457475154552534e-07</v>
+        <v>1.463707026344636e-07</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>1.463140502753851e-07</v>
+        <v>1.470478854132844e-07</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>1.453537102847185e-07</v>
+        <v>1.461789189426024e-07</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>1.429779543359239e-07</v>
+        <v>1.438387396445095e-07</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>1.392982571403673e-07</v>
+        <v>1.401023032163167e-07</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>1.345348047675574e-07</v>
+        <v>1.351766969828438e-07</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>1.292760697742604e-07</v>
+        <v>1.297166366840288e-07</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>1.241884384885853e-07</v>
+        <v>1.244715372116631e-07</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>1.199315825188159e-07</v>
+        <v>1.201831642152652e-07</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>1.167145824929965e-07</v>
+        <v>1.170799812761659e-07</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>1.140191954657753e-07</v>
+        <v>1.145619030014853e-07</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>1.112611079978912e-07</v>
+        <v>1.119535781305005e-07</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>1.078673816678254e-07</v>
+        <v>1.085941599285359e-07</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>1.035428931216824e-07</v>
+        <v>1.041770495377824e-07</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>9.827963757406329e-08</v>
+        <v>9.876175906831001e-08</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>9.208284770025934e-08</v>
+        <v>9.242467928685613e-08</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>8.500137391168207e-08</v>
+        <v>8.526992257210768e-08</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>7.72433912221163e-08</v>
+        <v>7.750286136789696e-08</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>6.905344273636928e-08</v>
+        <v>6.9351982158269e-08</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>6.067607155924833e-08</v>
+        <v>6.104577142726897e-08</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>5.235582079556074e-08</v>
+        <v>5.281271565894194e-08</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>4.433723355011387e-08</v>
+        <v>4.488130133733301e-08</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>3.686485292771498e-08</v>
+        <v>3.748001494648731e-08</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>3.018322203317141e-08</v>
+        <v>3.083734297044993e-08</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>2.453688397129536e-08</v>
+        <v>2.518177189327092e-08</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>2.016693782024843e-08</v>
+        <v>2.073875172893586e-08</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>1.707427177175115e-08</v>
+        <v>1.752194749693923e-08</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>1.486674330760117e-08</v>
+        <v>1.51985036740485e-08</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>1.311854549669555e-08</v>
+        <v>1.340541800498439e-08</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>1.157739746989814e-08</v>
+        <v>1.190256847509745e-08</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>1.026734969724118e-08</v>
+        <v>1.064551354025387e-08</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>9.230392547852521e-09</v>
+        <v>9.608451065202076e-09</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>8.458985024643529e-09</v>
+        <v>8.774299911041168e-09</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>7.923417437412843e-09</v>
+        <v>8.129882184560917e-09</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>7.593876198055322e-09</v>
+        <v>7.662038285873266e-09</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>7.440547718465822e-09</v>
+        <v>7.357608615090156e-09</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>7.433618410539196e-09</v>
+        <v>7.20343357232353e-09</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>7.543292488638632e-09</v>
+        <v>7.186356330151685e-09</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>7.745809203893131e-09</v>
+        <v>7.294159927248501e-09</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>8.032201658618712e-09</v>
+        <v>7.51693132183188e-09</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>8.395728263673355e-09</v>
+        <v>7.845104030414561e-09</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>8.829647429915057e-09</v>
+        <v>8.269111569509281e-09</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>9.327217568201805e-09</v>
+        <v>8.779387455628774e-09</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>9.881697089391594e-09</v>
+        <v>9.366365205285783e-09</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>1.048634440434241e-08</v>
+        <v>1.002047833499304e-08</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>1.113441792391224e-08</v>
+        <v>1.073216036126329e-08</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>1.181917605895908e-08</v>
+        <v>1.149184480060925e-08</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>1.253387722034092e-08</v>
+        <v>1.228996516954368e-08</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>1.327177981891575e-08</v>
+        <v>1.311695498457931e-08</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>1.402614226554155e-08</v>
+        <v>1.396324776222887e-08</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>1.479022297107632e-08</v>
+        <v>1.48192770190051e-08</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>1.555728034637806e-08</v>
+        <v>1.567547627142074e-08</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>1.632057280230474e-08</v>
+        <v>1.652227903598852e-08</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>1.707335874971436e-08</v>
+        <v>1.735011882922119e-08</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>1.780889659946491e-08</v>
+        <v>1.814942916763147e-08</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>1.852044476241438e-08</v>
+        <v>1.891064356773211e-08</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>1.920126164942076e-08</v>
+        <v>1.962419554603585e-08</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>1.984468797640219e-08</v>
+        <v>2.028075547873563e-08</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>2.044560729811288e-08</v>
+        <v>2.087543376445592e-08</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>2.10002733961419e-08</v>
+        <v>2.140728407686781e-08</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>2.150498768232148e-08</v>
+        <v>2.187549716121653e-08</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>2.195605156848342e-08</v>
+        <v>2.227926376274702e-08</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>2.234976646646118e-08</v>
+        <v>2.261777462670561e-08</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>2.268243378808545e-08</v>
+        <v>2.289022049833626e-08</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>2.295035494518976e-08</v>
+        <v>2.309579212288531e-08</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>2.314983134960527e-08</v>
+        <v>2.323368024559721e-08</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>2.32771644131649e-08</v>
+        <v>2.330307561171773e-08</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>2.332865554770065e-08</v>
+        <v>2.330316896649198e-08</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>2.330060616504474e-08</v>
+        <v>2.323315105516523e-08</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>2.318931767702937e-08</v>
+        <v>2.309221262298274e-08</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>2.299109149548679e-08</v>
+        <v>2.287954441518979e-08</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>2.270222903224922e-08</v>
+        <v>2.259433717703163e-08</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>2.231903169914888e-08</v>
+        <v>2.223578165375356e-08</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>2.183780090801797e-08</v>
+        <v>2.180306859060081e-08</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>2.125483807068874e-08</v>
+        <v>2.129538873281867e-08</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>2.05664445989934e-08</v>
+        <v>2.07119328256524e-08</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>1.976892190476418e-08</v>
+        <v>2.005189161434727e-08</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>1.88688318754293e-08</v>
+        <v>1.931994292501961e-08</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>1.800241666361932e-08</v>
+        <v>1.859011479040021e-08</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.739480295266002e-08</v>
+        <v>1.798396877161699e-08</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.727285204563343e-08</v>
+        <v>1.762399406700083e-08</v>
       </c>
     </row>
   </sheetData>
